--- a/PSM-四个变量-2009基期/匹配后比较_四个变量.xlsx
+++ b/PSM-四个变量-2009基期/匹配后比较_四个变量.xlsx
@@ -465,22 +465,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.736748916572608</v>
+        <v>6.687148029338182</v>
       </c>
       <c r="C2" t="n">
-        <v>6.601296210043252</v>
+        <v>6.570311120900312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1354527065293558</v>
+        <v>0.11683690843787</v>
       </c>
       <c r="E2" t="n">
-        <v>14.46446245473859</v>
+        <v>12.70713733727643</v>
       </c>
       <c r="F2" t="n">
-        <v>1.062916572532637</v>
+        <v>0.9030117737368897</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2890179433428006</v>
+        <v>0.3676060922413187</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.899621111825452</v>
+        <v>5.848378376315575</v>
       </c>
       <c r="C3" t="n">
-        <v>5.791106887709556</v>
+        <v>5.773717978679917</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1085142241158961</v>
+        <v>0.07466039763565835</v>
       </c>
       <c r="E3" t="n">
-        <v>12.55191071791213</v>
+        <v>8.525852126170705</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9223732966756806</v>
+        <v>0.6058756308934319</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3573853299675878</v>
+        <v>0.5452912898077318</v>
       </c>
     </row>
     <row r="4">
@@ -515,22 +515,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7551134221807259</v>
+        <v>0.7197834411214429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7863842123195677</v>
+        <v>0.7471074021414038</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03127079013884182</v>
+        <v>-0.02732396101996093</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.022751268002277</v>
+        <v>-6.683957501942611</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5160647159126741</v>
+        <v>-0.474984424832292</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6063454171329726</v>
+        <v>0.6353208663150816</v>
       </c>
     </row>
     <row r="5">
@@ -540,22 +540,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4912625664196633</v>
+        <v>0.4945814727379544</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4733603216928464</v>
+        <v>0.4770474889431849</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01790224472681684</v>
+        <v>0.01753398379476945</v>
       </c>
       <c r="E5" t="n">
-        <v>18.01007454521561</v>
+        <v>17.52308519848812</v>
       </c>
       <c r="F5" t="n">
-        <v>1.323464785957981</v>
+        <v>1.245249171897352</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1871385453857363</v>
+        <v>0.2145669291153803</v>
       </c>
     </row>
   </sheetData>
